--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/high-value/oldschool-high-value-rare.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/high-value/oldschool-high-value-rare.xlsx
@@ -59,8 +59,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 0/0
-Reserved List
+          <t xml:space="preserve">Reserved List
 Border: white
 Finish: normal</t>
         </r>
@@ -69,14 +68,14 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>You may have this creature enter as a copy of any creature on the battlefield, except it doesn't copy that creature's color and it has "At the beginning of your upkeep, you may have this creature become a copy of target creature, except it doesn't copy that creature's color and it has this ability."</t>
+          <t>Target player draws X cards.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
+          <t xml:space="preserve">➤ 1× 𝗫 generic
 ➤ 2 blue</t>
         </r>
       </text>
@@ -134,7 +133,8 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Reserved List
+          <t xml:space="preserve">P/T: 0/0
+Reserved List
 Border: white
 Finish: normal</t>
         </r>
@@ -143,14 +143,14 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>Target player draws X cards.</t>
+          <t>You may have this creature enter as a copy of any creature on the battlefield, except it doesn't copy that creature's color and it has "At the beginning of your upkeep, you may have this creature become a copy of target creature, except it doesn't copy that creature's color and it has this ability."</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1× 𝗫 generic
+          <t xml:space="preserve">➤ 3 generic
 ➤ 2 blue</t>
         </r>
       </text>
@@ -168,6 +168,29 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Reserved List
+Border: white
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>Copy target instant or sorcery spell, except that the copy is red. You may choose new targets for the copy.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t>➤ 2 red</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 1/1
 Reserved List
 Border: black
@@ -175,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">{T}: You may put a Goblin permanent card from your hand onto the battlefield.
@@ -183,34 +206,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
 ➤ 2 red</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Reserved List
-Border: white
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>Copy target instant or sorcery spell, except that the copy is red. You may choose new targets for the copy.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t>➤ 2 red</t>
         </r>
       </text>
     </comment>
@@ -587,10 +587,10 @@
     <t>Oldschool - High Value (Rare) - Blue</t>
   </si>
   <si>
-    <t>Vesuvan Doppelganger</t>
+    <t>Braingeyser</t>
   </si>
   <si>
-    <t>Creature — Shapeshifter</t>
+    <t>Sorcery</t>
   </si>
   <si>
     <t>3ed</t>
@@ -599,19 +599,19 @@
     <t>Revised Edition</t>
   </si>
   <si>
-    <t>88</t>
+    <t>50</t>
   </si>
   <si>
-    <t>{3}{U}{U}</t>
+    <t>{X}{U}{U}</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>21.86</t>
+    <t>16.78</t>
   </si>
   <si>
-    <t>Open Vesuvan Doppelganger</t>
+    <t>Open Braingeyser</t>
   </si>
   <si>
     <t>Copy Artifact</t>
@@ -647,25 +647,46 @@
     <t>Open Mana Vortex</t>
   </si>
   <si>
-    <t>Braingeyser</t>
+    <t>Vesuvan Doppelganger</t>
   </si>
   <si>
-    <t>Sorcery</t>
+    <t>Creature — Shapeshifter</t>
   </si>
   <si>
-    <t>50</t>
+    <t>88</t>
   </si>
   <si>
-    <t>{X}{U}{U}</t>
+    <t>{3}{U}{U}</t>
   </si>
   <si>
-    <t>16.78</t>
+    <t>21.86</t>
   </si>
   <si>
-    <t>Open Braingeyser</t>
+    <t>Open Vesuvan Doppelganger</t>
   </si>
   <si>
     <t>Oldschool - High Value (Rare) - Red</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>{R}{R}</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>32.68</t>
+  </si>
+  <si>
+    <t>Open Fork</t>
   </si>
   <si>
     <t>Goblin Wizard</t>
@@ -680,31 +701,10 @@
     <t>{2}{R}{R}</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>74.17</t>
   </si>
   <si>
     <t>Open Goblin Wizard</t>
-  </si>
-  <si>
-    <t>Fork</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>{R}{R}</t>
-  </si>
-  <si>
-    <t>32.68</t>
-  </si>
-  <si>
-    <t>Open Fork</t>
   </si>
   <si>
     <t>Wheel of Fortune</t>
@@ -975,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1007,39 +1007,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,34 +1036,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4867,13 +4821,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>28</v>
@@ -4891,7 +4845,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>33</v>
@@ -4999,13 +4953,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>48</v>
@@ -5023,7 +4977,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>33</v>
@@ -8346,22 +8300,22 @@
         <v>54</v>
       </c>
       <c r="B3" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>56</v>
@@ -8370,7 +8324,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>58</v>
@@ -8390,22 +8344,22 @@
         <v>61</v>
       </c>
       <c r="B4" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>63</v>
@@ -8414,7 +8368,7 @@
         <v>64</v>
       </c>
       <c r="J4" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>58</v>
@@ -8430,46 +8384,46 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="7">
         <v>3</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11829,10 +11783,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>80</v>
@@ -18552,46 +18506,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>5</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21941,46 +21895,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22029,46 +21983,46 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22117,46 +22071,46 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <v>0</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="13" t="s">
         <v>139</v>
       </c>
     </row>
